--- a/个人日报/个人日报_常智裕.xlsx
+++ b/个人日报/个人日报_常智裕.xlsx
@@ -5,23 +5,29 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INlinKC\OneDrive\文档\tencent files\1296853427\filerecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubsave\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450863A3-8A17-4509-B817-0105B00D1F9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EB65C7-2F43-4BCB-B251-0D55782A3746}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="文件封面" sheetId="4" r:id="rId1"/>
-    <sheet name="文件修改控制" sheetId="5" r:id="rId2"/>
-    <sheet name="封面" sheetId="6" r:id="rId3"/>
-    <sheet name="2019-7-18" sheetId="1" r:id="rId4"/>
+    <sheet name="2019-7-19" sheetId="8" r:id="rId1"/>
+    <sheet name="文件封面" sheetId="4" r:id="rId2"/>
+    <sheet name="文件修改控制" sheetId="5" r:id="rId3"/>
+    <sheet name="封面" sheetId="6" r:id="rId4"/>
+    <sheet name="2019-7-18" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="父活动类型名" localSheetId="0">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="0">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
+    <definedName name="模块" localSheetId="0">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="0">#REF!</definedName>
     <definedName name="子活动类型名">#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -309,6 +315,10 @@
   </si>
   <si>
     <t>做作业并完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习结构体，指针</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1733,6 +1743,96 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1783,96 +1883,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1919,6 +1929,85 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7792F564-4EFB-40A5-BB2F-28C6097E2508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8077200" y="76200"/>
+          <a:ext cx="1825625" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1945,8 +2034,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4191000" y="219075"/>
-          <a:ext cx="1638300" cy="304800"/>
+          <a:off x="4187825" y="219075"/>
+          <a:ext cx="1638300" cy="311150"/>
           <a:chOff x="2352" y="4130"/>
           <a:chExt cx="2399" cy="459"/>
         </a:xfrm>
@@ -8403,7 +8492,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14891,7 +14980,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15290,6 +15379,414 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE49256-2EF2-43E5-9CD4-8E93E1819BC8}">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7.19</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8">
+        <v>8</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="135" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="138">
+        <v>7.19</v>
+      </c>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="140"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="144">
+        <v>7.19</v>
+      </c>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="142"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+      <c r="C10" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="124"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="102" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B14" s="36">
+        <v>5</v>
+      </c>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B15" s="37">
+        <v>6</v>
+      </c>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B16" s="36">
+        <v>7</v>
+      </c>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="44">
+        <f>SUM(F10:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="110"/>
+      <c r="E19" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="120"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B21" s="39">
+        <v>2</v>
+      </c>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="120"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
+        <v>3</v>
+      </c>
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="109"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{1589FB62-10A0-45DB-BAFB-49B1AC95C3CA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{902A4C0F-CD6B-43D4-82CF-D3E0126F63E6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{D44811FC-9FCA-49B4-94AD-17FBCBB71CCE}"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J117"/>
   <sheetViews>
@@ -15689,7 +16186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E111"/>
   <sheetViews>
@@ -15910,7 +16407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
@@ -16254,11 +16751,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -16278,17 +16775,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16345,46 +16842,46 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137"/>
     </row>
     <row r="6" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="112">
+      <c r="C6" s="138">
         <v>7.18</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="114"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="140"/>
     </row>
     <row r="7" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="144">
         <v>7.18</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B8" s="17" t="s">
@@ -16403,19 +16900,19 @@
       <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="117"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="143"/>
       <c r="F9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="117"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
       <c r="J9" s="33" t="s">
         <v>9</v>
       </c>
@@ -16424,19 +16921,19 @@
       <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="132" t="s">
+      <c r="G10" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="125"/>
       <c r="J10" s="102" t="s">
         <v>45</v>
       </c>
@@ -16445,94 +16942,94 @@
       <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B12" s="37">
         <v>3</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="125"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B13" s="36">
         <v>4</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="125"/>
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B14" s="36">
         <v>5</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="125"/>
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="125"/>
       <c r="J15" s="35"/>
     </row>
     <row r="16" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B16" s="36">
         <v>7</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="125"/>
       <c r="J16" s="35"/>
     </row>
     <row r="17" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="123"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="45"/>
     </row>
     <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
@@ -16552,57 +17049,57 @@
       <c r="B19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="110"/>
+      <c r="E19" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
     </row>
     <row r="20" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B20" s="38">
         <v>1</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="120"/>
     </row>
     <row r="21" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B21" s="39">
         <v>2</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="120"/>
     </row>
     <row r="22" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="135"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="109"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="42"/>
@@ -16618,6 +17115,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -16626,28 +17145,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -16660,4 +17157,17 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816F144C-2AE6-4090-A44E-80AB81A768A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/个人日报/个人日报_常智裕.xlsx
+++ b/个人日报/个人日报_常智裕.xlsx
@@ -5,36 +5,36 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubsave\SummerTraining\个人日报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RES\主导项目-文件夹下分支了单独仓库\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EB65C7-2F43-4BCB-B251-0D55782A3746}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28ED49-20CF-41B3-B4D8-DAC5B89586DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2019-7-19" sheetId="8" r:id="rId1"/>
-    <sheet name="文件封面" sheetId="4" r:id="rId2"/>
-    <sheet name="文件修改控制" sheetId="5" r:id="rId3"/>
-    <sheet name="封面" sheetId="6" r:id="rId4"/>
-    <sheet name="2019-7-18" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="文件封面" sheetId="4" r:id="rId1"/>
+    <sheet name="文件修改控制" sheetId="5" r:id="rId2"/>
+    <sheet name="封面" sheetId="6" r:id="rId3"/>
+    <sheet name="2019-7-18" sheetId="1" r:id="rId4"/>
+    <sheet name="2019-7-19" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="父活动类型名" localSheetId="0">#REF!</definedName>
+    <definedName name="父活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
-    <definedName name="里程碑" localSheetId="0">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="4">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
-    <definedName name="模块" localSheetId="0">#REF!</definedName>
+    <definedName name="模块" localSheetId="4">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
-    <definedName name="子活动类型名" localSheetId="0">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="子活动类型名">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1733,48 +1733,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1785,9 +1748,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1805,8 +1779,16 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1821,16 +1803,24 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1861,6 +1851,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1873,15 +1873,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -1929,85 +1929,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="b">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7792F564-4EFB-40A5-BB2F-28C6097E2508}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8077200" y="76200"/>
-          <a:ext cx="1825625" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2034,8 +1955,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4187825" y="219075"/>
-          <a:ext cx="1638300" cy="311150"/>
+          <a:off x="4185285" y="219075"/>
+          <a:ext cx="1638300" cy="300990"/>
           <a:chOff x="2352" y="4130"/>
           <a:chExt cx="2399" cy="459"/>
         </a:xfrm>
@@ -8492,7 +8413,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8522,8 +8443,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4667250" y="266700"/>
-          <a:ext cx="1638300" cy="304800"/>
+          <a:off x="4653915" y="266700"/>
+          <a:ext cx="1638300" cy="308610"/>
           <a:chOff x="2352" y="4130"/>
           <a:chExt cx="2399" cy="459"/>
         </a:xfrm>
@@ -14980,7 +14901,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15025,6 +14946,85 @@
         <a:xfrm>
           <a:off x="8086725" y="76200"/>
           <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7792F564-4EFB-40A5-BB2F-28C6097E2508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8077200" y="76200"/>
+          <a:ext cx="1825625" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15379,6 +15379,1379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J117"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="7.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9" style="29"/>
+    <col min="3" max="3" width="8.296875" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="22.2">
+      <c r="A1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="22.2">
+      <c r="A2" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A3" s="46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A12" s="24"/>
+      <c r="C12" s="47"/>
+    </row>
+    <row r="13" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" s="23" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A15" s="143" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+    </row>
+    <row r="16" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A16" s="27"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" s="23" customFormat="1" ht="18">
+      <c r="A17" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="18">
+      <c r="A18" s="49">
+        <v>40142</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="17.399999999999999">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="1:10" s="23" customFormat="1" ht="19.2">
+      <c r="A33" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="51"/>
+    </row>
+    <row r="34" spans="1:10" s="23" customFormat="1" ht="19.2">
+      <c r="A34" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="51"/>
+    </row>
+    <row r="35" spans="1:10" s="23" customFormat="1">
+      <c r="A35" s="28"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="51"/>
+    </row>
+    <row r="36" spans="1:10" s="23" customFormat="1">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:10" s="23" customFormat="1"/>
+    <row r="38" spans="1:10" s="23" customFormat="1"/>
+    <row r="39" spans="1:10" s="23" customFormat="1"/>
+    <row r="40" spans="1:10" s="23" customFormat="1"/>
+    <row r="41" spans="1:10" s="23" customFormat="1"/>
+    <row r="58" spans="1:1">
+      <c r="A58" s="30"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="31"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="53"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="53"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="53"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="53"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="53"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="53"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="53"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="53"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="53"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="53"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="53"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="53"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="53"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="53"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="53"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="53"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:I15"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E111"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="46.19921875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="57" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.2">
+      <c r="A1" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A2" s="58"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6">
+      <c r="A3" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="63" customFormat="1" ht="15.6">
+      <c r="A4" s="60">
+        <v>1</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="62">
+        <v>40142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="63" customFormat="1">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="62"/>
+    </row>
+    <row r="6" spans="1:5" s="63" customFormat="1" ht="15.6">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+    </row>
+    <row r="7" spans="1:5" s="63" customFormat="1" ht="15.6">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+    </row>
+    <row r="8" spans="1:5" s="63" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="62"/>
+    </row>
+    <row r="9" spans="1:5" s="63" customFormat="1" ht="15.6">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+    </row>
+    <row r="10" spans="1:5" s="63" customFormat="1" ht="15.6">
+      <c r="A10" s="60"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+    </row>
+    <row r="11" spans="1:5" s="63" customFormat="1">
+      <c r="A11" s="60"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="62"/>
+    </row>
+    <row r="12" spans="1:5" s="63" customFormat="1" ht="15.6">
+      <c r="A12" s="60"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+    </row>
+    <row r="13" spans="1:5" s="63" customFormat="1">
+      <c r="A13" s="60"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="62"/>
+    </row>
+    <row r="14" spans="1:5" s="63" customFormat="1" ht="15.6">
+      <c r="A14" s="60"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+    </row>
+    <row r="15" spans="1:5" s="63" customFormat="1">
+      <c r="A15" s="60"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="62"/>
+    </row>
+    <row r="16" spans="1:5" s="63" customFormat="1">
+      <c r="A16" s="60"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="62"/>
+    </row>
+    <row r="17" spans="1:4" s="63" customFormat="1">
+      <c r="A17" s="60"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="62"/>
+    </row>
+    <row r="18" spans="1:4" s="63" customFormat="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="62"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.6">
+      <c r="A19" s="60"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="62"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6">
+      <c r="A20" s="60"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="62"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.6">
+      <c r="A21" s="60"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="62"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="69"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="69"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="69"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="69"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="69"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="69"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="69"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="69"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="69"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="69"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="69"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="69"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="69"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="69"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="69"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="69"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="69"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I56"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="9.19921875" style="98" customWidth="1"/>
+    <col min="2" max="4" width="9.59765625" style="98" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="98" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" style="98" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="98" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="98" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="98"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="71" customFormat="1" ht="22.8">
+      <c r="A1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" s="71" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="74" customFormat="1" ht="22.8">
+      <c r="A3" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+    </row>
+    <row r="4" spans="1:9" s="71" customFormat="1" ht="17.399999999999999">
+      <c r="A4" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A5" s="75"/>
+    </row>
+    <row r="6" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A6" s="75"/>
+    </row>
+    <row r="7" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A7" s="75"/>
+    </row>
+    <row r="8" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A8" s="75"/>
+    </row>
+    <row r="9" spans="1:9" s="71" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A9" s="75"/>
+    </row>
+    <row r="10" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A10" s="75"/>
+    </row>
+    <row r="11" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A11" s="75"/>
+    </row>
+    <row r="12" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A12" s="75"/>
+    </row>
+    <row r="13" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A13" s="75"/>
+    </row>
+    <row r="14" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A14" s="75"/>
+    </row>
+    <row r="15" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="1:9" s="78" customFormat="1" ht="45">
+      <c r="A16" s="145" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+    </row>
+    <row r="17" spans="1:8" s="78" customFormat="1" ht="16.2">
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+    </row>
+    <row r="18" spans="1:8" s="71" customFormat="1" ht="53.4">
+      <c r="A18" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+    </row>
+    <row r="19" spans="1:8" s="71" customFormat="1" ht="18">
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+    </row>
+    <row r="20" spans="1:8" s="71" customFormat="1" ht="46.2">
+      <c r="A20" s="83"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+    </row>
+    <row r="21" spans="1:8" s="71" customFormat="1" ht="18">
+      <c r="A21" s="49"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+    </row>
+    <row r="22" spans="1:8" s="71" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A22" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+    </row>
+    <row r="23" spans="1:8" s="71" customFormat="1" ht="18">
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+    </row>
+    <row r="24" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+    </row>
+    <row r="25" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="76"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+    </row>
+    <row r="26" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="76"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+    </row>
+    <row r="27" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="76"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+    </row>
+    <row r="28" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="76"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+    </row>
+    <row r="29" spans="1:8" s="88" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A29" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+    </row>
+    <row r="30" spans="1:8" s="88" customFormat="1">
+      <c r="A30" s="89"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+    </row>
+    <row r="31" spans="1:8" s="88" customFormat="1">
+      <c r="A31" s="89"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+    </row>
+    <row r="32" spans="1:8" s="88" customFormat="1">
+      <c r="A32" s="89"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+    </row>
+    <row r="33" spans="1:8" s="94" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="92"/>
+      <c r="C33" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="92"/>
+      <c r="E33" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="92"/>
+      <c r="G33" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="92"/>
+    </row>
+    <row r="34" spans="1:8" s="94" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A34" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="146"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+    </row>
+    <row r="35" spans="1:8" s="71" customFormat="1" ht="18">
+      <c r="A35" s="76"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+    </row>
+    <row r="36" spans="1:8" s="71" customFormat="1" ht="19.2">
+      <c r="A36" s="95"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+    </row>
+    <row r="37" spans="1:8" s="71" customFormat="1" ht="18.600000000000001">
+      <c r="A37" s="96"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+    </row>
+    <row r="38" spans="1:8" s="71" customFormat="1"/>
+    <row r="55" spans="1:1">
+      <c r="A55" s="97"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7.18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8">
+        <v>8</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="134">
+        <v>7.18</v>
+      </c>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="137">
+        <v>7.18</v>
+      </c>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="115"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="102" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="36">
+        <v>5</v>
+      </c>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="37">
+        <v>6</v>
+      </c>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="36">
+        <v>7</v>
+      </c>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="44">
+        <f>SUM(F10:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="126"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="39">
+        <v>2</v>
+      </c>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
+        <v>3</v>
+      </c>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE49256-2EF2-43E5-9CD4-8E93E1819BC8}">
   <dimension ref="B1:J27"/>
   <sheetViews>
@@ -15386,33 +16759,33 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.796875" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -15452,7 +16825,7 @@
       </c>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
@@ -15465,52 +16838,52 @@
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
-    </row>
-    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="134">
         <v>7.19</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
-    </row>
-    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="144">
+      <c r="C7" s="137">
         <v>7.19</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
-    </row>
-    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
@@ -15523,140 +16896,140 @@
       <c r="I8" s="18"/>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="141" t="s">
+      <c r="G9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="142"/>
-      <c r="I9" s="143"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
       <c r="J9" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="116"/>
       <c r="J10" s="102" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
       <c r="J11" s="35"/>
     </row>
-    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="37">
         <v>3</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="116"/>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="36">
         <v>4</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="125"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="36">
         <v>5</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="116"/>
       <c r="J14" s="35"/>
     </row>
-    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="125"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="116"/>
       <c r="J15" s="35"/>
     </row>
-    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="36">
         <v>7</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="116"/>
       <c r="J16" s="35"/>
     </row>
-    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B17" s="130" t="s">
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
       <c r="J17" s="45"/>
     </row>
     <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
@@ -15672,106 +17045,106 @@
       <c r="I18" s="18"/>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="115" t="s">
+      <c r="D19" s="123"/>
+      <c r="E19" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
-    </row>
-    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="126"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="38">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120"/>
-    </row>
-    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="39">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
-    </row>
-    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="42"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" ht="15.6">
       <c r="B25" s="42"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" ht="15.6">
       <c r="B26" s="42"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" ht="15.6">
       <c r="B27" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -15784,1390 +17157,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J117"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9" style="29"/>
-    <col min="3" max="3" width="8.33203125" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="23">
-      <c r="A1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="23">
-      <c r="A2" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A3" s="46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A4" s="24"/>
-    </row>
-    <row r="5" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A10" s="24"/>
-    </row>
-    <row r="11" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A12" s="24"/>
-      <c r="C12" s="47"/>
-    </row>
-    <row r="13" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A13" s="24"/>
-    </row>
-    <row r="14" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-    </row>
-    <row r="15" spans="1:9" s="23" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="103" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-    </row>
-    <row r="16" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A16" s="27"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-    </row>
-    <row r="17" spans="1:9" s="23" customFormat="1" ht="18">
-      <c r="A17" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-    </row>
-    <row r="18" spans="1:9" s="23" customFormat="1" ht="18">
-      <c r="A18" s="49">
-        <v>40142</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-    </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-    </row>
-    <row r="20" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-    </row>
-    <row r="21" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-    </row>
-    <row r="22" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-    </row>
-    <row r="23" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-    </row>
-    <row r="25" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-    </row>
-    <row r="26" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-    </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-    </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-    </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-    </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-    </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-    </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-    </row>
-    <row r="33" spans="1:10" s="23" customFormat="1" ht="18.5">
-      <c r="A33" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="51"/>
-    </row>
-    <row r="34" spans="1:10" s="23" customFormat="1" ht="18.5">
-      <c r="A34" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="51"/>
-    </row>
-    <row r="35" spans="1:10" s="23" customFormat="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="51"/>
-    </row>
-    <row r="36" spans="1:10" s="23" customFormat="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-    </row>
-    <row r="37" spans="1:10" s="23" customFormat="1"/>
-    <row r="38" spans="1:10" s="23" customFormat="1"/>
-    <row r="39" spans="1:10" s="23" customFormat="1"/>
-    <row r="40" spans="1:10" s="23" customFormat="1"/>
-    <row r="41" spans="1:10" s="23" customFormat="1"/>
-    <row r="58" spans="1:1">
-      <c r="A58" s="30"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="31"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="53"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="53"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="53"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="53"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="53"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="53"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="53"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="53"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="53"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="53"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="53"/>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="53"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="53"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="53"/>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="53"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="53"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="53"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A15:I15"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E111"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
-  <cols>
-    <col min="1" max="1" width="12.58203125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="57" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="57" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="57" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="57"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="27.5">
-      <c r="A1" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="63" customFormat="1">
-      <c r="A4" s="60">
-        <v>1</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="62">
-        <v>40142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="63" customFormat="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="62"/>
-    </row>
-    <row r="6" spans="1:5" s="63" customFormat="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-    </row>
-    <row r="7" spans="1:5" s="63" customFormat="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-    </row>
-    <row r="8" spans="1:5" s="63" customFormat="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="62"/>
-    </row>
-    <row r="9" spans="1:5" s="63" customFormat="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-    </row>
-    <row r="10" spans="1:5" s="63" customFormat="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-    </row>
-    <row r="11" spans="1:5" s="63" customFormat="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="62"/>
-    </row>
-    <row r="12" spans="1:5" s="63" customFormat="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-    </row>
-    <row r="13" spans="1:5" s="63" customFormat="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="62"/>
-    </row>
-    <row r="14" spans="1:5" s="63" customFormat="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-    </row>
-    <row r="15" spans="1:5" s="63" customFormat="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="62"/>
-    </row>
-    <row r="16" spans="1:5" s="63" customFormat="1">
-      <c r="A16" s="60"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="62"/>
-    </row>
-    <row r="17" spans="1:4" s="63" customFormat="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="62"/>
-    </row>
-    <row r="18" spans="1:4" s="63" customFormat="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="62"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="60"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="62"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="60"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="62"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="60"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="62"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="69"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="69"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="69"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="69"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="69"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="69"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="69"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="69"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="69"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="69"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="69"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="69"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="69"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="69"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="69"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="69"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="69"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I56"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.5"/>
-  <cols>
-    <col min="1" max="1" width="9.25" style="98" customWidth="1"/>
-    <col min="2" max="4" width="9.58203125" style="98" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" style="98" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" style="98" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="98" customWidth="1"/>
-    <col min="8" max="8" width="9.58203125" style="98" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="98"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="71" customFormat="1" ht="22.5">
-      <c r="A1" s="70"/>
-    </row>
-    <row r="2" spans="1:9" s="71" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="74" customFormat="1" ht="22.5">
-      <c r="A3" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-    </row>
-    <row r="4" spans="1:9" s="71" customFormat="1" ht="17.5">
-      <c r="A4" s="46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A5" s="75"/>
-    </row>
-    <row r="6" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A6" s="75"/>
-    </row>
-    <row r="7" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A7" s="75"/>
-    </row>
-    <row r="8" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A8" s="75"/>
-    </row>
-    <row r="9" spans="1:9" s="71" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A9" s="75"/>
-    </row>
-    <row r="10" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A10" s="75"/>
-    </row>
-    <row r="11" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A11" s="75"/>
-    </row>
-    <row r="12" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A12" s="75"/>
-    </row>
-    <row r="13" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A13" s="75"/>
-    </row>
-    <row r="14" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A14" s="75"/>
-    </row>
-    <row r="15" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-    </row>
-    <row r="16" spans="1:9" s="78" customFormat="1" ht="45.5">
-      <c r="A16" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-    </row>
-    <row r="17" spans="1:8" s="78" customFormat="1" ht="16">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-    </row>
-    <row r="18" spans="1:8" s="71" customFormat="1" ht="53.5">
-      <c r="A18" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-    </row>
-    <row r="19" spans="1:8" s="71" customFormat="1" ht="18">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-    </row>
-    <row r="20" spans="1:8" s="71" customFormat="1" ht="46">
-      <c r="A20" s="83"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-    </row>
-    <row r="21" spans="1:8" s="71" customFormat="1" ht="18">
-      <c r="A21" s="49"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-    </row>
-    <row r="22" spans="1:8" s="71" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A22" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-    </row>
-    <row r="23" spans="1:8" s="71" customFormat="1" ht="18">
-      <c r="A23" s="76"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-    </row>
-    <row r="24" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-    </row>
-    <row r="25" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="76"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-    </row>
-    <row r="26" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-    </row>
-    <row r="27" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-    </row>
-    <row r="28" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-    </row>
-    <row r="29" spans="1:8" s="88" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A29" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-    </row>
-    <row r="30" spans="1:8" s="88" customFormat="1">
-      <c r="A30" s="89"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-    </row>
-    <row r="31" spans="1:8" s="88" customFormat="1">
-      <c r="A31" s="89"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-    </row>
-    <row r="32" spans="1:8" s="88" customFormat="1">
-      <c r="A32" s="89"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-    </row>
-    <row r="33" spans="1:8" s="94" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="92"/>
-      <c r="E33" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="92"/>
-      <c r="G33" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="92"/>
-    </row>
-    <row r="34" spans="1:8" s="94" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A34" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-    </row>
-    <row r="35" spans="1:8" s="71" customFormat="1" ht="18">
-      <c r="A35" s="76"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-    </row>
-    <row r="36" spans="1:8" s="71" customFormat="1" ht="19">
-      <c r="A36" s="95"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-    </row>
-    <row r="37" spans="1:8" s="71" customFormat="1" ht="19">
-      <c r="A37" s="96"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-    </row>
-    <row r="38" spans="1:8" s="71" customFormat="1"/>
-    <row r="55" spans="1:1">
-      <c r="A55" s="97"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="99"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
-  <cols>
-    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6">
-        <v>7.18</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="8">
-        <v>8</v>
-      </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="135" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
-    </row>
-    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="138">
-        <v>7.18</v>
-      </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
-    </row>
-    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="144">
-        <v>7.18</v>
-      </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
-    </row>
-    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B9" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="142"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B10" s="36">
-        <v>1</v>
-      </c>
-      <c r="C10" s="121" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="126" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="102" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B11" s="36">
-        <v>2</v>
-      </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="35"/>
-    </row>
-    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B12" s="37">
-        <v>3</v>
-      </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B13" s="36">
-        <v>4</v>
-      </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="35"/>
-    </row>
-    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B14" s="36">
-        <v>5</v>
-      </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="35"/>
-    </row>
-    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B15" s="37">
-        <v>6</v>
-      </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B16" s="36">
-        <v>7</v>
-      </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B17" s="130" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="44">
-        <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="45"/>
-    </row>
-    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B19" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="115" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
-    </row>
-    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B20" s="38">
-        <v>1</v>
-      </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120"/>
-    </row>
-    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B21" s="39">
-        <v>2</v>
-      </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
-    </row>
-    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
-      <c r="B22" s="40">
-        <v>3</v>
-      </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="42"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="42"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="42"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="42"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816F144C-2AE6-4090-A44E-80AB81A768A7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/个人日报/个人日报_常智裕.xlsx
+++ b/个人日报/个人日报_常智裕.xlsx
@@ -8,25 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubsave\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EB65C7-2F43-4BCB-B251-0D55782A3746}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82106A36-C1CE-4F82-BD4B-5ACB3C58FD8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2019-7-19" sheetId="8" r:id="rId1"/>
-    <sheet name="文件封面" sheetId="4" r:id="rId2"/>
-    <sheet name="文件修改控制" sheetId="5" r:id="rId3"/>
-    <sheet name="封面" sheetId="6" r:id="rId4"/>
-    <sheet name="2019-7-18" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="2019-7-20" sheetId="10" r:id="rId1"/>
+    <sheet name="2019-7-19" sheetId="8" r:id="rId2"/>
+    <sheet name="文件封面" sheetId="4" r:id="rId3"/>
+    <sheet name="文件修改控制" sheetId="5" r:id="rId4"/>
+    <sheet name="封面" sheetId="6" r:id="rId5"/>
+    <sheet name="2019-7-18" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="父活动类型名" localSheetId="1">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="0">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="1">#REF!</definedName>
     <definedName name="里程碑" localSheetId="0">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
+    <definedName name="模块" localSheetId="1">#REF!</definedName>
     <definedName name="模块" localSheetId="0">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="1">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="0">#REF!</definedName>
     <definedName name="子活动类型名">#REF!</definedName>
   </definedNames>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -319,6 +324,10 @@
   </si>
   <si>
     <t>复习结构体，指针</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习链表，文本操作</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1733,48 +1742,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1785,9 +1757,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1805,8 +1788,16 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1821,16 +1812,24 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1861,6 +1860,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1873,15 +1882,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -1926,6 +1935,85 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC8CAEF-B332-4019-A7A5-EAE943F46DE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8077200" y="76200"/>
+          <a:ext cx="1825625" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2004,7 +2092,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8492,7 +8580,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14980,7 +15068,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15379,10 +15467,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE49256-2EF2-43E5-9CD4-8E93E1819BC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546ABAEC-6570-4FEE-A49A-3ABAB787727C}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -15402,17 +15490,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -15436,7 +15524,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="6">
-        <v>7.19</v>
+        <v>7.2</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
@@ -15469,46 +15557,46 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
     </row>
     <row r="6" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138">
-        <v>7.19</v>
+      <c r="C6" s="134">
+        <v>7.2</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
     </row>
     <row r="7" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="144">
-        <v>7.19</v>
+      <c r="C7" s="137">
+        <v>7.2</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
     </row>
     <row r="8" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B8" s="17" t="s">
@@ -15527,19 +15615,19 @@
       <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="141" t="s">
+      <c r="G9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="142"/>
-      <c r="I9" s="143"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
       <c r="J9" s="33" t="s">
         <v>9</v>
       </c>
@@ -15548,19 +15636,19 @@
       <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="121" t="s">
-        <v>51</v>
+      <c r="C10" s="127" t="s">
+        <v>52</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="116"/>
       <c r="J10" s="102" t="s">
         <v>45</v>
       </c>
@@ -15569,94 +15657,94 @@
       <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B12" s="37">
         <v>3</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="116"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B13" s="36">
         <v>4</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="125"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B14" s="36">
         <v>5</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="116"/>
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="125"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="116"/>
       <c r="J15" s="35"/>
     </row>
     <row r="16" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B16" s="36">
         <v>7</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="116"/>
       <c r="J16" s="35"/>
     </row>
     <row r="17" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
       <c r="J17" s="45"/>
     </row>
     <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
@@ -15676,57 +15764,57 @@
       <c r="B19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="115" t="s">
+      <c r="D19" s="123"/>
+      <c r="E19" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="126"/>
     </row>
     <row r="20" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B20" s="38">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
     </row>
     <row r="21" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B21" s="39">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
     </row>
     <row r="22" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="42"/>
@@ -15775,6 +15863,414 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{950B0F47-0F72-4162-8BC5-329B5D6556AA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{85D112DF-2AA3-4014-82C8-02B350450C5F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{4EC23236-3F16-4787-B98C-23FEBB2F8D6C}"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE49256-2EF2-43E5-9CD4-8E93E1819BC8}">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7.19</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8">
+        <v>8</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="134">
+        <v>7.19</v>
+      </c>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="137">
+        <v>7.19</v>
+      </c>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="115"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="102" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B14" s="36">
+        <v>5</v>
+      </c>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B15" s="37">
+        <v>6</v>
+      </c>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B16" s="36">
+        <v>7</v>
+      </c>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B17" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="44">
+        <f>SUM(F10:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="126"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B21" s="39">
+        <v>2</v>
+      </c>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
+        <v>3</v>
+      </c>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{1589FB62-10A0-45DB-BAFB-49B1AC95C3CA}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{902A4C0F-CD6B-43D4-82CF-D3E0126F63E6}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{D44811FC-9FCA-49B4-94AD-17FBCBB71CCE}"/>
@@ -15786,7 +16282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J117"/>
   <sheetViews>
@@ -15858,17 +16354,17 @@
       <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:9" s="23" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
     </row>
     <row r="16" spans="1:9" s="23" customFormat="1" ht="17.5">
       <c r="A16" s="27"/>
@@ -16186,7 +16682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E111"/>
   <sheetViews>
@@ -16407,7 +16903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
@@ -16491,16 +16987,16 @@
       <c r="H15" s="77"/>
     </row>
     <row r="16" spans="1:9" s="78" customFormat="1" ht="45.5">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
     </row>
     <row r="17" spans="1:8" s="78" customFormat="1" ht="16">
       <c r="A17" s="79"/>
@@ -16690,15 +17186,15 @@
       <c r="A34" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
       <c r="E34" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
     </row>
     <row r="35" spans="1:8" s="71" customFormat="1" ht="18">
       <c r="A35" s="76"/>
@@ -16751,7 +17247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
@@ -16775,17 +17271,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16842,46 +17338,46 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
     </row>
     <row r="6" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="134">
         <v>7.18</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
     </row>
     <row r="7" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="144">
+      <c r="C7" s="137">
         <v>7.18</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
     </row>
     <row r="8" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B8" s="17" t="s">
@@ -16900,19 +17396,19 @@
       <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="141" t="s">
+      <c r="G9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="142"/>
-      <c r="I9" s="143"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
       <c r="J9" s="33" t="s">
         <v>9</v>
       </c>
@@ -16921,19 +17417,19 @@
       <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="116"/>
       <c r="J10" s="102" t="s">
         <v>45</v>
       </c>
@@ -16942,94 +17438,94 @@
       <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B12" s="37">
         <v>3</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="116"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B13" s="36">
         <v>4</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="125"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B14" s="36">
         <v>5</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="116"/>
       <c r="J14" s="35"/>
     </row>
     <row r="15" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="125"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="116"/>
       <c r="J15" s="35"/>
     </row>
     <row r="16" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B16" s="36">
         <v>7</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="116"/>
       <c r="J16" s="35"/>
     </row>
     <row r="17" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
       <c r="J17" s="45"/>
     </row>
     <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
@@ -17049,57 +17545,57 @@
       <c r="B19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="115" t="s">
+      <c r="D19" s="123"/>
+      <c r="E19" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="126"/>
     </row>
     <row r="20" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B20" s="38">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
     </row>
     <row r="21" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B21" s="39">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
     </row>
     <row r="22" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="42"/>
@@ -17115,12 +17611,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -17129,22 +17635,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17159,7 +17655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816F144C-2AE6-4090-A44E-80AB81A768A7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -17169,5 +17665,6 @@
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/个人日报/个人日报_常智裕.xlsx
+++ b/个人日报/个人日报_常智裕.xlsx
@@ -8,29 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubsave\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82106A36-C1CE-4F82-BD4B-5ACB3C58FD8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26A2B03-2C92-4F8C-B46C-EC5FDC91A823}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2019-7-20" sheetId="10" r:id="rId1"/>
-    <sheet name="2019-7-19" sheetId="8" r:id="rId2"/>
-    <sheet name="文件封面" sheetId="4" r:id="rId3"/>
-    <sheet name="文件修改控制" sheetId="5" r:id="rId4"/>
-    <sheet name="封面" sheetId="6" r:id="rId5"/>
-    <sheet name="2019-7-18" sheetId="1" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="2019-7-21" sheetId="11" r:id="rId1"/>
+    <sheet name="2019-7-20" sheetId="12" r:id="rId2"/>
+    <sheet name="2019-7-19" sheetId="8" r:id="rId3"/>
+    <sheet name="文件封面" sheetId="4" r:id="rId4"/>
+    <sheet name="文件修改控制" sheetId="5" r:id="rId5"/>
+    <sheet name="封面" sheetId="6" r:id="rId6"/>
+    <sheet name="2019-7-18" sheetId="1" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="父活动类型名" localSheetId="2">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="1">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="0">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="2">#REF!</definedName>
     <definedName name="里程碑" localSheetId="1">#REF!</definedName>
     <definedName name="里程碑" localSheetId="0">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
+    <definedName name="模块" localSheetId="2">#REF!</definedName>
     <definedName name="模块" localSheetId="1">#REF!</definedName>
     <definedName name="模块" localSheetId="0">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="2">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="1">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="0">#REF!</definedName>
     <definedName name="子活动类型名">#REF!</definedName>
@@ -47,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -327,7 +332,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>复习链表，文本操作</t>
+    <t>做电子词典</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习链表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1954,7 +1963,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC8CAEF-B332-4019-A7A5-EAE943F46DE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31387A2-BD64-47BF-B458-BC0D881D4542}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,6 +2042,85 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB646D4-4B0E-4FD5-B0B5-5E0F847A3273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8077200" y="76200"/>
+          <a:ext cx="1825625" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7792F564-4EFB-40A5-BB2F-28C6097E2508}"/>
             </a:ext>
           </a:extLst>
@@ -2092,7 +2180,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8580,7 +8668,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15068,7 +15156,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15467,11 +15555,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546ABAEC-6570-4FEE-A49A-3ABAB787727C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0092D10-6EB6-4E07-8924-81B3E4E234BB}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -15524,13 +15612,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="6">
-        <v>7.2</v>
+        <v>7.21</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="101" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H3" s="43" t="s">
         <v>17</v>
@@ -15558,7 +15646,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="131" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D5" s="132"/>
       <c r="E5" s="132"/>
@@ -15573,7 +15661,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="134">
-        <v>7.2</v>
+        <v>7.21</v>
       </c>
       <c r="D6" s="135"/>
       <c r="E6" s="135"/>
@@ -15588,7 +15676,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="137">
-        <v>7.2</v>
+        <v>7.21</v>
       </c>
       <c r="D7" s="138"/>
       <c r="E7" s="138"/>
@@ -15863,9 +15951,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{950B0F47-0F72-4162-8BC5-329B5D6556AA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{85D112DF-2AA3-4014-82C8-02B350450C5F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{4EC23236-3F16-4787-B98C-23FEBB2F8D6C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{41EA4D91-E1C1-4B18-B26A-A2A6E65FCF47}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{06D56B77-F940-44A9-9ED3-00DA5C1DD490}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{BC74CCF0-3528-45FF-8C18-FB2360D615A7}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -15875,10 +15963,418 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8D3A5-33E5-4711-B17A-62B2CF718632}">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8">
+        <v>8</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="134">
+        <v>7.2</v>
+      </c>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="137">
+        <v>7.2</v>
+      </c>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="115"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="102" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B14" s="36">
+        <v>5</v>
+      </c>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B15" s="37">
+        <v>6</v>
+      </c>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B16" s="36">
+        <v>7</v>
+      </c>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B17" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="44">
+        <f>SUM(F10:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="126"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B21" s="39">
+        <v>2</v>
+      </c>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
+        <v>3</v>
+      </c>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{EDD57D84-F382-49AD-A50C-332875EC8B7A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{BB7A1C70-5AC1-453C-8535-B8488A3E9412}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{6EE10344-B389-48CE-B005-4D0F2EA3DFE4}"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE49256-2EF2-43E5-9CD4-8E93E1819BC8}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -16238,36 +16734,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -16282,7 +16778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J117"/>
   <sheetViews>
@@ -16682,7 +17178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E111"/>
   <sheetViews>
@@ -16903,7 +17399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
@@ -17247,7 +17743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
@@ -17611,6 +18107,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -17619,28 +18137,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17655,7 +18151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816F144C-2AE6-4090-A44E-80AB81A768A7}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/个人日报/个人日报_常智裕.xlsx
+++ b/个人日报/个人日报_常智裕.xlsx
@@ -8,33 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubsave\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26A2B03-2C92-4F8C-B46C-EC5FDC91A823}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC81F624-1A00-4E74-9AEF-6B18E667E6F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2019-7-21" sheetId="11" r:id="rId1"/>
-    <sheet name="2019-7-20" sheetId="12" r:id="rId2"/>
-    <sheet name="2019-7-19" sheetId="8" r:id="rId3"/>
-    <sheet name="文件封面" sheetId="4" r:id="rId4"/>
-    <sheet name="文件修改控制" sheetId="5" r:id="rId5"/>
-    <sheet name="封面" sheetId="6" r:id="rId6"/>
-    <sheet name="2019-7-18" sheetId="1" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
+    <sheet name="2019-7-22" sheetId="13" r:id="rId1"/>
+    <sheet name="2019-7-21" sheetId="11" r:id="rId2"/>
+    <sheet name="2019-7-20" sheetId="12" r:id="rId3"/>
+    <sheet name="2019-7-19" sheetId="8" r:id="rId4"/>
+    <sheet name="2019-7-18" sheetId="1" r:id="rId5"/>
+    <sheet name="文件封面" sheetId="4" r:id="rId6"/>
+    <sheet name="文件修改控制" sheetId="5" r:id="rId7"/>
+    <sheet name="封面" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="父活动类型名" localSheetId="3">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="2">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="1">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="0">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="3">#REF!</definedName>
     <definedName name="里程碑" localSheetId="2">#REF!</definedName>
     <definedName name="里程碑" localSheetId="1">#REF!</definedName>
     <definedName name="里程碑" localSheetId="0">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
+    <definedName name="模块" localSheetId="3">#REF!</definedName>
     <definedName name="模块" localSheetId="2">#REF!</definedName>
     <definedName name="模块" localSheetId="1">#REF!</definedName>
     <definedName name="模块" localSheetId="0">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="3">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="2">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="1">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="0">#REF!</definedName>
@@ -52,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="55">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -337,6 +341,10 @@
   </si>
   <si>
     <t>复习链表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>做需求分析</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1963,7 +1971,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31387A2-BD64-47BF-B458-BC0D881D4542}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D533110-4A80-4030-9C19-8C19E809644F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2050,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB646D4-4B0E-4FD5-B0B5-5E0F847A3273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31387A2-BD64-47BF-B458-BC0D881D4542}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,6 +2129,85 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB646D4-4B0E-4FD5-B0B5-5E0F847A3273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8077200" y="76200"/>
+          <a:ext cx="1825625" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7792F564-4EFB-40A5-BB2F-28C6097E2508}"/>
             </a:ext>
           </a:extLst>
@@ -2180,7 +2267,86 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8086725" y="76200"/>
+          <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8668,7 +8834,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15151,85 +15317,6 @@
         </xdr:spPr>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 1" descr="b">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8086725" y="76200"/>
-          <a:ext cx="1828800" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15555,11 +15642,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0092D10-6EB6-4E07-8924-81B3E4E234BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A7ED5A-1647-49A6-B7A4-2081F28A7C64}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -15612,7 +15699,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="6">
-        <v>7.21</v>
+        <v>7.22</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
@@ -15661,7 +15748,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="134">
-        <v>7.21</v>
+        <v>7.22</v>
       </c>
       <c r="D6" s="135"/>
       <c r="E6" s="135"/>
@@ -15676,7 +15763,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="137">
-        <v>7.21</v>
+        <v>7.22</v>
       </c>
       <c r="D7" s="138"/>
       <c r="E7" s="138"/>
@@ -15745,14 +15832,22 @@
       <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="C11" s="113"/>
+      <c r="C11" s="127" t="s">
+        <v>54</v>
+      </c>
       <c r="D11" s="113"/>
       <c r="E11" s="113"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="114"/>
+      <c r="F11" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="128" t="s">
+        <v>50</v>
+      </c>
       <c r="H11" s="115"/>
       <c r="I11" s="116"/>
-      <c r="J11" s="35"/>
+      <c r="J11" s="102" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B12" s="37">
@@ -15951,6 +16046,414 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{C53F189E-68F1-4150-8FB0-9FB7E5E37C0A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{8E0DAF99-CDF1-451E-A92C-6FD008D68154}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{E53CF0D8-6D08-43CE-8262-B1D523DAB015}"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0092D10-6EB6-4E07-8924-81B3E4E234BB}">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7.21</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8">
+        <v>8</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="134">
+        <v>7.21</v>
+      </c>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="137">
+        <v>7.21</v>
+      </c>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="115"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="102" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B14" s="36">
+        <v>5</v>
+      </c>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B15" s="37">
+        <v>6</v>
+      </c>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B16" s="36">
+        <v>7</v>
+      </c>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B17" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="44">
+        <f>SUM(F10:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="126"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B21" s="39">
+        <v>2</v>
+      </c>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
+        <v>3</v>
+      </c>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{41EA4D91-E1C1-4B18-B26A-A2A6E65FCF47}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{06D56B77-F940-44A9-9ED3-00DA5C1DD490}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{BC74CCF0-3528-45FF-8C18-FB2360D615A7}"/>
@@ -15962,11 +16465,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8D3A5-33E5-4711-B17A-62B2CF718632}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
@@ -16326,36 +16829,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -16370,7 +16873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE49256-2EF2-43E5-9CD4-8E93E1819BC8}">
   <dimension ref="B1:J27"/>
   <sheetViews>
@@ -16734,36 +17237,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -16778,972 +17281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J117"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9" style="29"/>
-    <col min="3" max="3" width="8.33203125" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="23">
-      <c r="A1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="23">
-      <c r="A2" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A3" s="46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A4" s="24"/>
-    </row>
-    <row r="5" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A10" s="24"/>
-    </row>
-    <row r="11" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A12" s="24"/>
-      <c r="C12" s="47"/>
-    </row>
-    <row r="13" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A13" s="24"/>
-    </row>
-    <row r="14" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-    </row>
-    <row r="15" spans="1:9" s="23" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-    </row>
-    <row r="16" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A16" s="27"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-    </row>
-    <row r="17" spans="1:9" s="23" customFormat="1" ht="18">
-      <c r="A17" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-    </row>
-    <row r="18" spans="1:9" s="23" customFormat="1" ht="18">
-      <c r="A18" s="49">
-        <v>40142</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-    </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-    </row>
-    <row r="20" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-    </row>
-    <row r="21" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-    </row>
-    <row r="22" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-    </row>
-    <row r="23" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-    </row>
-    <row r="25" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-    </row>
-    <row r="26" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-    </row>
-    <row r="27" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-    </row>
-    <row r="28" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-    </row>
-    <row r="29" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-    </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-    </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-    </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" ht="17.5">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-    </row>
-    <row r="33" spans="1:10" s="23" customFormat="1" ht="18.5">
-      <c r="A33" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="51"/>
-    </row>
-    <row r="34" spans="1:10" s="23" customFormat="1" ht="18.5">
-      <c r="A34" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="51"/>
-    </row>
-    <row r="35" spans="1:10" s="23" customFormat="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="51"/>
-    </row>
-    <row r="36" spans="1:10" s="23" customFormat="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-    </row>
-    <row r="37" spans="1:10" s="23" customFormat="1"/>
-    <row r="38" spans="1:10" s="23" customFormat="1"/>
-    <row r="39" spans="1:10" s="23" customFormat="1"/>
-    <row r="40" spans="1:10" s="23" customFormat="1"/>
-    <row r="41" spans="1:10" s="23" customFormat="1"/>
-    <row r="58" spans="1:1">
-      <c r="A58" s="30"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="31"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="53"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="53"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="53"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="53"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="53"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="53"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="53"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="53"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="53"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="53"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="53"/>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="53"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="53"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="53"/>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="53"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="53"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="53"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A15:I15"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E111"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
-  <cols>
-    <col min="1" max="1" width="12.58203125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="57" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="57" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="57" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="57"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="27.5">
-      <c r="A1" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="63" customFormat="1">
-      <c r="A4" s="60">
-        <v>1</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="62">
-        <v>40142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="63" customFormat="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="62"/>
-    </row>
-    <row r="6" spans="1:5" s="63" customFormat="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-    </row>
-    <row r="7" spans="1:5" s="63" customFormat="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-    </row>
-    <row r="8" spans="1:5" s="63" customFormat="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="62"/>
-    </row>
-    <row r="9" spans="1:5" s="63" customFormat="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-    </row>
-    <row r="10" spans="1:5" s="63" customFormat="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-    </row>
-    <row r="11" spans="1:5" s="63" customFormat="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="62"/>
-    </row>
-    <row r="12" spans="1:5" s="63" customFormat="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-    </row>
-    <row r="13" spans="1:5" s="63" customFormat="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="62"/>
-    </row>
-    <row r="14" spans="1:5" s="63" customFormat="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-    </row>
-    <row r="15" spans="1:5" s="63" customFormat="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="62"/>
-    </row>
-    <row r="16" spans="1:5" s="63" customFormat="1">
-      <c r="A16" s="60"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="62"/>
-    </row>
-    <row r="17" spans="1:4" s="63" customFormat="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="62"/>
-    </row>
-    <row r="18" spans="1:4" s="63" customFormat="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="62"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="60"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="62"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="60"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="62"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="60"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="62"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="69"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="69"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="69"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="69"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="69"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="69"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="69"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="69"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="69"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="69"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="69"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="69"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="69"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="69"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="69"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="69"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="69"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I56"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.5"/>
-  <cols>
-    <col min="1" max="1" width="9.25" style="98" customWidth="1"/>
-    <col min="2" max="4" width="9.58203125" style="98" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" style="98" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" style="98" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="98" customWidth="1"/>
-    <col min="8" max="8" width="9.58203125" style="98" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="98"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="71" customFormat="1" ht="22.5">
-      <c r="A1" s="70"/>
-    </row>
-    <row r="2" spans="1:9" s="71" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="74" customFormat="1" ht="22.5">
-      <c r="A3" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-    </row>
-    <row r="4" spans="1:9" s="71" customFormat="1" ht="17.5">
-      <c r="A4" s="46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A5" s="75"/>
-    </row>
-    <row r="6" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A6" s="75"/>
-    </row>
-    <row r="7" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A7" s="75"/>
-    </row>
-    <row r="8" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A8" s="75"/>
-    </row>
-    <row r="9" spans="1:9" s="71" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A9" s="75"/>
-    </row>
-    <row r="10" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A10" s="75"/>
-    </row>
-    <row r="11" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A11" s="75"/>
-    </row>
-    <row r="12" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A12" s="75"/>
-    </row>
-    <row r="13" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A13" s="75"/>
-    </row>
-    <row r="14" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A14" s="75"/>
-    </row>
-    <row r="15" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-    </row>
-    <row r="16" spans="1:9" s="78" customFormat="1" ht="45.5">
-      <c r="A16" s="145" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-    </row>
-    <row r="17" spans="1:8" s="78" customFormat="1" ht="16">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-    </row>
-    <row r="18" spans="1:8" s="71" customFormat="1" ht="53.5">
-      <c r="A18" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-    </row>
-    <row r="19" spans="1:8" s="71" customFormat="1" ht="18">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-    </row>
-    <row r="20" spans="1:8" s="71" customFormat="1" ht="46">
-      <c r="A20" s="83"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-    </row>
-    <row r="21" spans="1:8" s="71" customFormat="1" ht="18">
-      <c r="A21" s="49"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-    </row>
-    <row r="22" spans="1:8" s="71" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A22" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-    </row>
-    <row r="23" spans="1:8" s="71" customFormat="1" ht="18">
-      <c r="A23" s="76"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-    </row>
-    <row r="24" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-    </row>
-    <row r="25" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="76"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-    </row>
-    <row r="26" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-    </row>
-    <row r="27" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-    </row>
-    <row r="28" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-    </row>
-    <row r="29" spans="1:8" s="88" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A29" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-    </row>
-    <row r="30" spans="1:8" s="88" customFormat="1">
-      <c r="A30" s="89"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-    </row>
-    <row r="31" spans="1:8" s="88" customFormat="1">
-      <c r="A31" s="89"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-    </row>
-    <row r="32" spans="1:8" s="88" customFormat="1">
-      <c r="A32" s="89"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-    </row>
-    <row r="33" spans="1:8" s="94" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="92"/>
-      <c r="E33" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="92"/>
-      <c r="G33" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="92"/>
-    </row>
-    <row r="34" spans="1:8" s="94" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A34" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="146"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-    </row>
-    <row r="35" spans="1:8" s="71" customFormat="1" ht="18">
-      <c r="A35" s="76"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-    </row>
-    <row r="36" spans="1:8" s="71" customFormat="1" ht="19">
-      <c r="A36" s="95"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-    </row>
-    <row r="37" spans="1:8" s="71" customFormat="1" ht="19">
-      <c r="A37" s="96"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-    </row>
-    <row r="38" spans="1:8" s="71" customFormat="1"/>
-    <row r="55" spans="1:1">
-      <c r="A55" s="97"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="99"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
@@ -18107,12 +17645,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -18121,22 +17669,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18151,16 +17689,967 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J117"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9" style="29"/>
+    <col min="3" max="3" width="8.33203125" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="23">
+      <c r="A1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="23">
+      <c r="A2" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A3" s="46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A12" s="24"/>
+      <c r="C12" s="47"/>
+    </row>
+    <row r="13" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" s="23" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A15" s="143" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+    </row>
+    <row r="16" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A16" s="27"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" s="23" customFormat="1" ht="18">
+      <c r="A17" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="18">
+      <c r="A18" s="49">
+        <v>40142</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="17.5">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="1:10" s="23" customFormat="1" ht="18.5">
+      <c r="A33" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="51"/>
+    </row>
+    <row r="34" spans="1:10" s="23" customFormat="1" ht="18.5">
+      <c r="A34" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="51"/>
+    </row>
+    <row r="35" spans="1:10" s="23" customFormat="1">
+      <c r="A35" s="28"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="51"/>
+    </row>
+    <row r="36" spans="1:10" s="23" customFormat="1">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:10" s="23" customFormat="1"/>
+    <row r="38" spans="1:10" s="23" customFormat="1"/>
+    <row r="39" spans="1:10" s="23" customFormat="1"/>
+    <row r="40" spans="1:10" s="23" customFormat="1"/>
+    <row r="41" spans="1:10" s="23" customFormat="1"/>
+    <row r="58" spans="1:1">
+      <c r="A58" s="30"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="31"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="53"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="53"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="53"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="53"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="53"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="53"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="53"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="53"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="53"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="53"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="53"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="53"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="53"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="53"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="53"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="53"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:I15"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E111"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="12.58203125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="57" customWidth="1"/>
+    <col min="3" max="3" width="46.25" style="57" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="57" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.5">
+      <c r="A1" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1">
+      <c r="A2" s="58"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="63" customFormat="1">
+      <c r="A4" s="60">
+        <v>1</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="62">
+        <v>40142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="63" customFormat="1">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="62"/>
+    </row>
+    <row r="6" spans="1:5" s="63" customFormat="1">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+    </row>
+    <row r="7" spans="1:5" s="63" customFormat="1">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+    </row>
+    <row r="8" spans="1:5" s="63" customFormat="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="62"/>
+    </row>
+    <row r="9" spans="1:5" s="63" customFormat="1">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+    </row>
+    <row r="10" spans="1:5" s="63" customFormat="1">
+      <c r="A10" s="60"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+    </row>
+    <row r="11" spans="1:5" s="63" customFormat="1">
+      <c r="A11" s="60"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="62"/>
+    </row>
+    <row r="12" spans="1:5" s="63" customFormat="1">
+      <c r="A12" s="60"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+    </row>
+    <row r="13" spans="1:5" s="63" customFormat="1">
+      <c r="A13" s="60"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="62"/>
+    </row>
+    <row r="14" spans="1:5" s="63" customFormat="1">
+      <c r="A14" s="60"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+    </row>
+    <row r="15" spans="1:5" s="63" customFormat="1">
+      <c r="A15" s="60"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="62"/>
+    </row>
+    <row r="16" spans="1:5" s="63" customFormat="1">
+      <c r="A16" s="60"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="62"/>
+    </row>
+    <row r="17" spans="1:4" s="63" customFormat="1">
+      <c r="A17" s="60"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="62"/>
+    </row>
+    <row r="18" spans="1:4" s="63" customFormat="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="62"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="60"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="62"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="60"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="62"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="60"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="62"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="69"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="69"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="69"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="69"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="69"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="69"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="69"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="69"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="69"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="69"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="69"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="69"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="69"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="69"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="69"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="69"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="69"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816F144C-2AE6-4090-A44E-80AB81A768A7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" style="98" customWidth="1"/>
+    <col min="2" max="4" width="9.58203125" style="98" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" style="98" customWidth="1"/>
+    <col min="6" max="6" width="9.58203125" style="98" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="98" customWidth="1"/>
+    <col min="8" max="8" width="9.58203125" style="98" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="98"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="71" customFormat="1" ht="22.5">
+      <c r="A1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" s="71" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="74" customFormat="1" ht="22.5">
+      <c r="A3" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+    </row>
+    <row r="4" spans="1:9" s="71" customFormat="1" ht="17.5">
+      <c r="A4" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A5" s="75"/>
+    </row>
+    <row r="6" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A6" s="75"/>
+    </row>
+    <row r="7" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A7" s="75"/>
+    </row>
+    <row r="8" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A8" s="75"/>
+    </row>
+    <row r="9" spans="1:9" s="71" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A9" s="75"/>
+    </row>
+    <row r="10" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A10" s="75"/>
+    </row>
+    <row r="11" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A11" s="75"/>
+    </row>
+    <row r="12" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A12" s="75"/>
+    </row>
+    <row r="13" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A13" s="75"/>
+    </row>
+    <row r="14" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A14" s="75"/>
+    </row>
+    <row r="15" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="1:9" s="78" customFormat="1" ht="45.5">
+      <c r="A16" s="145" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+    </row>
+    <row r="17" spans="1:8" s="78" customFormat="1" ht="16">
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+    </row>
+    <row r="18" spans="1:8" s="71" customFormat="1" ht="53.5">
+      <c r="A18" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+    </row>
+    <row r="19" spans="1:8" s="71" customFormat="1" ht="18">
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+    </row>
+    <row r="20" spans="1:8" s="71" customFormat="1" ht="46">
+      <c r="A20" s="83"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+    </row>
+    <row r="21" spans="1:8" s="71" customFormat="1" ht="18">
+      <c r="A21" s="49"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+    </row>
+    <row r="22" spans="1:8" s="71" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A22" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+    </row>
+    <row r="23" spans="1:8" s="71" customFormat="1" ht="18">
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+    </row>
+    <row r="24" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+    </row>
+    <row r="25" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="76"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+    </row>
+    <row r="26" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="76"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+    </row>
+    <row r="27" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="76"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+    </row>
+    <row r="28" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="76"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+    </row>
+    <row r="29" spans="1:8" s="88" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A29" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+    </row>
+    <row r="30" spans="1:8" s="88" customFormat="1">
+      <c r="A30" s="89"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+    </row>
+    <row r="31" spans="1:8" s="88" customFormat="1">
+      <c r="A31" s="89"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+    </row>
+    <row r="32" spans="1:8" s="88" customFormat="1">
+      <c r="A32" s="89"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+    </row>
+    <row r="33" spans="1:8" s="94" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="92"/>
+      <c r="C33" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="92"/>
+      <c r="E33" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="92"/>
+      <c r="G33" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="92"/>
+    </row>
+    <row r="34" spans="1:8" s="94" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A34" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="146"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+    </row>
+    <row r="35" spans="1:8" s="71" customFormat="1" ht="18">
+      <c r="A35" s="76"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+    </row>
+    <row r="36" spans="1:8" s="71" customFormat="1" ht="19">
+      <c r="A36" s="95"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+    </row>
+    <row r="37" spans="1:8" s="71" customFormat="1" ht="19">
+      <c r="A37" s="96"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+    </row>
+    <row r="38" spans="1:8" s="71" customFormat="1"/>
+    <row r="55" spans="1:1">
+      <c r="A55" s="97"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/个人日报/个人日报_常智裕.xlsx
+++ b/个人日报/个人日报_常智裕.xlsx
@@ -8,36 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubsave\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC81F624-1A00-4E74-9AEF-6B18E667E6F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3C2595-4718-4E47-A5B5-C92A04FC5267}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2019-7-22" sheetId="13" r:id="rId1"/>
-    <sheet name="2019-7-21" sheetId="11" r:id="rId2"/>
-    <sheet name="2019-7-20" sheetId="12" r:id="rId3"/>
-    <sheet name="2019-7-19" sheetId="8" r:id="rId4"/>
-    <sheet name="2019-7-18" sheetId="1" r:id="rId5"/>
-    <sheet name="文件封面" sheetId="4" r:id="rId6"/>
-    <sheet name="文件修改控制" sheetId="5" r:id="rId7"/>
-    <sheet name="封面" sheetId="6" r:id="rId8"/>
+    <sheet name="2019-7-23" sheetId="14" r:id="rId1"/>
+    <sheet name="2019-7-22" sheetId="13" r:id="rId2"/>
+    <sheet name="2019-7-21" sheetId="11" r:id="rId3"/>
+    <sheet name="2019-7-20" sheetId="12" r:id="rId4"/>
+    <sheet name="2019-7-19" sheetId="8" r:id="rId5"/>
+    <sheet name="2019-7-18" sheetId="1" r:id="rId6"/>
+    <sheet name="文件封面" sheetId="4" r:id="rId7"/>
+    <sheet name="文件修改控制" sheetId="5" r:id="rId8"/>
+    <sheet name="封面" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="父活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="3">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="2">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="1">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="0">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="4">#REF!</definedName>
     <definedName name="里程碑" localSheetId="3">#REF!</definedName>
     <definedName name="里程碑" localSheetId="2">#REF!</definedName>
     <definedName name="里程碑" localSheetId="1">#REF!</definedName>
     <definedName name="里程碑" localSheetId="0">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
+    <definedName name="模块" localSheetId="4">#REF!</definedName>
     <definedName name="模块" localSheetId="3">#REF!</definedName>
     <definedName name="模块" localSheetId="2">#REF!</definedName>
     <definedName name="模块" localSheetId="1">#REF!</definedName>
     <definedName name="模块" localSheetId="0">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="3">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="2">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="1">#REF!</definedName>
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="57">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -345,6 +350,14 @@
   </si>
   <si>
     <t>做需求分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习MFC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看博客</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1971,7 +1984,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D533110-4A80-4030-9C19-8C19E809644F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BED37E2-D6D3-49E5-9C9D-AE1AB9AC2E67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2050,7 +2063,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31387A2-BD64-47BF-B458-BC0D881D4542}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D533110-4A80-4030-9C19-8C19E809644F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2142,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB646D4-4B0E-4FD5-B0B5-5E0F847A3273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31387A2-BD64-47BF-B458-BC0D881D4542}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,6 +2221,85 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB646D4-4B0E-4FD5-B0B5-5E0F847A3273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8077200" y="76200"/>
+          <a:ext cx="1825625" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7792F564-4EFB-40A5-BB2F-28C6097E2508}"/>
             </a:ext>
           </a:extLst>
@@ -2267,7 +2359,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2346,7 +2438,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8834,7 +8926,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15642,11 +15734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A7ED5A-1647-49A6-B7A4-2081F28A7C64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDDFD29-3641-4B1A-A07E-2C2FACAC0E4B}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -15699,13 +15791,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="6">
-        <v>7.22</v>
+        <v>7.23</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="101" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H3" s="43" t="s">
         <v>17</v>
@@ -15748,7 +15840,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="134">
-        <v>7.22</v>
+        <v>7.23</v>
       </c>
       <c r="D6" s="135"/>
       <c r="E6" s="135"/>
@@ -15763,7 +15855,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="137">
-        <v>7.22</v>
+        <v>7.23</v>
       </c>
       <c r="D7" s="138"/>
       <c r="E7" s="138"/>
@@ -15812,7 +15904,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="127" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D10" s="113"/>
       <c r="E10" s="113"/>
@@ -15820,7 +15912,7 @@
         <v>49</v>
       </c>
       <c r="G10" s="128" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H10" s="115"/>
       <c r="I10" s="116"/>
@@ -15832,22 +15924,14 @@
       <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
-        <v>54</v>
-      </c>
+      <c r="C11" s="127"/>
       <c r="D11" s="113"/>
       <c r="E11" s="113"/>
-      <c r="F11" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="128" t="s">
-        <v>50</v>
-      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="128"/>
       <c r="H11" s="115"/>
       <c r="I11" s="116"/>
-      <c r="J11" s="102" t="s">
-        <v>45</v>
-      </c>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B12" s="37">
@@ -16046,9 +16130,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{C53F189E-68F1-4150-8FB0-9FB7E5E37C0A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{8E0DAF99-CDF1-451E-A92C-6FD008D68154}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{E53CF0D8-6D08-43CE-8262-B1D523DAB015}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{86389E0E-B3C3-4DD4-847D-80742C2D67D9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{C42DABBE-98A9-4025-99F9-B9FFD6D38353}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{CEF55E98-5339-4689-81D0-C2DB92571C6F}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -16058,11 +16142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0092D10-6EB6-4E07-8924-81B3E4E234BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A7ED5A-1647-49A6-B7A4-2081F28A7C64}">
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E20" sqref="E20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -16115,7 +16199,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="6">
-        <v>7.21</v>
+        <v>7.22</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
@@ -16164,7 +16248,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="134">
-        <v>7.21</v>
+        <v>7.22</v>
       </c>
       <c r="D6" s="135"/>
       <c r="E6" s="135"/>
@@ -16179,7 +16263,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="137">
-        <v>7.21</v>
+        <v>7.22</v>
       </c>
       <c r="D7" s="138"/>
       <c r="E7" s="138"/>
@@ -16248,14 +16332,22 @@
       <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="C11" s="113"/>
+      <c r="C11" s="127" t="s">
+        <v>54</v>
+      </c>
       <c r="D11" s="113"/>
       <c r="E11" s="113"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="114"/>
+      <c r="F11" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="128" t="s">
+        <v>50</v>
+      </c>
       <c r="H11" s="115"/>
       <c r="I11" s="116"/>
-      <c r="J11" s="35"/>
+      <c r="J11" s="102" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B12" s="37">
@@ -16454,6 +16546,414 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{C53F189E-68F1-4150-8FB0-9FB7E5E37C0A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{8E0DAF99-CDF1-451E-A92C-6FD008D68154}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{E53CF0D8-6D08-43CE-8262-B1D523DAB015}"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0092D10-6EB6-4E07-8924-81B3E4E234BB}">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7.21</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8">
+        <v>8</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="134">
+        <v>7.21</v>
+      </c>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="137">
+        <v>7.21</v>
+      </c>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="115"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="102" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B14" s="36">
+        <v>5</v>
+      </c>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B15" s="37">
+        <v>6</v>
+      </c>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B16" s="36">
+        <v>7</v>
+      </c>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B17" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="44">
+        <f>SUM(F10:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="126"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B21" s="39">
+        <v>2</v>
+      </c>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
+        <v>3</v>
+      </c>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{41EA4D91-E1C1-4B18-B26A-A2A6E65FCF47}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{06D56B77-F940-44A9-9ED3-00DA5C1DD490}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{BC74CCF0-3528-45FF-8C18-FB2360D615A7}"/>
@@ -16465,7 +16965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8D3A5-33E5-4711-B17A-62B2CF718632}">
   <dimension ref="B1:J27"/>
   <sheetViews>
@@ -16829,36 +17329,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -16873,7 +17373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE49256-2EF2-43E5-9CD4-8E93E1819BC8}">
   <dimension ref="B1:J27"/>
   <sheetViews>
@@ -17237,36 +17737,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17281,7 +17781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
@@ -17645,6 +18145,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -17653,28 +18175,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17689,7 +18189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J117"/>
   <sheetViews>
@@ -18089,7 +18589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E111"/>
   <sheetViews>
@@ -18310,7 +18810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>

--- a/个人日报/个人日报_常智裕.xlsx
+++ b/个人日报/个人日报_常智裕.xlsx
@@ -8,40 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubsave\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3C2595-4718-4E47-A5B5-C92A04FC5267}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA68D7F7-931C-4AC1-A657-4D3DBC1DCCB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2019-7-23" sheetId="14" r:id="rId1"/>
-    <sheet name="2019-7-22" sheetId="13" r:id="rId2"/>
-    <sheet name="2019-7-21" sheetId="11" r:id="rId3"/>
-    <sheet name="2019-7-20" sheetId="12" r:id="rId4"/>
-    <sheet name="2019-7-19" sheetId="8" r:id="rId5"/>
-    <sheet name="2019-7-18" sheetId="1" r:id="rId6"/>
-    <sheet name="文件封面" sheetId="4" r:id="rId7"/>
-    <sheet name="文件修改控制" sheetId="5" r:id="rId8"/>
-    <sheet name="封面" sheetId="6" r:id="rId9"/>
+    <sheet name="2019-7-24" sheetId="15" r:id="rId1"/>
+    <sheet name="2019-7-23" sheetId="14" r:id="rId2"/>
+    <sheet name="2019-7-22" sheetId="13" r:id="rId3"/>
+    <sheet name="2019-7-21" sheetId="11" r:id="rId4"/>
+    <sheet name="2019-7-20" sheetId="12" r:id="rId5"/>
+    <sheet name="2019-7-19" sheetId="8" r:id="rId6"/>
+    <sheet name="2019-7-18" sheetId="1" r:id="rId7"/>
+    <sheet name="文件封面" sheetId="4" r:id="rId8"/>
+    <sheet name="文件修改控制" sheetId="5" r:id="rId9"/>
+    <sheet name="封面" sheetId="6" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="父活动类型名" localSheetId="5">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="3">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="2">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="1">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="0">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="5">#REF!</definedName>
     <definedName name="里程碑" localSheetId="4">#REF!</definedName>
     <definedName name="里程碑" localSheetId="3">#REF!</definedName>
     <definedName name="里程碑" localSheetId="2">#REF!</definedName>
     <definedName name="里程碑" localSheetId="1">#REF!</definedName>
     <definedName name="里程碑" localSheetId="0">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
+    <definedName name="模块" localSheetId="5">#REF!</definedName>
     <definedName name="模块" localSheetId="4">#REF!</definedName>
     <definedName name="模块" localSheetId="3">#REF!</definedName>
     <definedName name="模块" localSheetId="2">#REF!</definedName>
     <definedName name="模块" localSheetId="1">#REF!</definedName>
     <definedName name="模块" localSheetId="0">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="5">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="3">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="2">#REF!</definedName>
@@ -61,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="57">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1984,7 +1989,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BED37E2-D6D3-49E5-9C9D-AE1AB9AC2E67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB95CE2-6332-4BB2-9317-7072657107AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,7 +2068,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D533110-4A80-4030-9C19-8C19E809644F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BED37E2-D6D3-49E5-9C9D-AE1AB9AC2E67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2147,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31387A2-BD64-47BF-B458-BC0D881D4542}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D533110-4A80-4030-9C19-8C19E809644F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2226,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB646D4-4B0E-4FD5-B0B5-5E0F847A3273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31387A2-BD64-47BF-B458-BC0D881D4542}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,6 +2305,85 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB646D4-4B0E-4FD5-B0B5-5E0F847A3273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8077200" y="76200"/>
+          <a:ext cx="1825625" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7792F564-4EFB-40A5-BB2F-28C6097E2508}"/>
             </a:ext>
           </a:extLst>
@@ -2359,7 +2443,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2438,7 +2522,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8926,7 +9010,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15734,11 +15818,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDDFD29-3641-4B1A-A07E-2C2FACAC0E4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512C8802-0DB0-4D65-978F-F892C3D5D6A1}">
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:I10"/>
+      <selection activeCell="C7" sqref="C7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -15791,7 +15875,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="6">
-        <v>7.23</v>
+        <v>7.24</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
@@ -15840,7 +15924,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="134">
-        <v>7.23</v>
+        <v>7.24</v>
       </c>
       <c r="D6" s="135"/>
       <c r="E6" s="135"/>
@@ -15855,7 +15939,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="137">
-        <v>7.23</v>
+        <v>7.24</v>
       </c>
       <c r="D7" s="138"/>
       <c r="E7" s="138"/>
@@ -16130,9 +16214,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{86389E0E-B3C3-4DD4-847D-80742C2D67D9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{C42DABBE-98A9-4025-99F9-B9FFD6D38353}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{CEF55E98-5339-4689-81D0-C2DB92571C6F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{DFA5694E-4F80-494A-A8CC-48348B0F4378}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{6D1C1E47-E890-4E45-98CE-DD199496E2DB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{95793982-8FA5-4107-9BC0-30AA9C19FD75}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -16141,12 +16225,356 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I56"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" style="98" customWidth="1"/>
+    <col min="2" max="4" width="9.58203125" style="98" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" style="98" customWidth="1"/>
+    <col min="6" max="6" width="9.58203125" style="98" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="98" customWidth="1"/>
+    <col min="8" max="8" width="9.58203125" style="98" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="98"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="71" customFormat="1" ht="22.5">
+      <c r="A1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" s="71" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="74" customFormat="1" ht="22.5">
+      <c r="A3" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+    </row>
+    <row r="4" spans="1:9" s="71" customFormat="1" ht="17.5">
+      <c r="A4" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A5" s="75"/>
+    </row>
+    <row r="6" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A6" s="75"/>
+    </row>
+    <row r="7" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A7" s="75"/>
+    </row>
+    <row r="8" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A8" s="75"/>
+    </row>
+    <row r="9" spans="1:9" s="71" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A9" s="75"/>
+    </row>
+    <row r="10" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A10" s="75"/>
+    </row>
+    <row r="11" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A11" s="75"/>
+    </row>
+    <row r="12" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A12" s="75"/>
+    </row>
+    <row r="13" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A13" s="75"/>
+    </row>
+    <row r="14" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A14" s="75"/>
+    </row>
+    <row r="15" spans="1:9" s="71" customFormat="1" ht="18">
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="1:9" s="78" customFormat="1" ht="45.5">
+      <c r="A16" s="145" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+    </row>
+    <row r="17" spans="1:8" s="78" customFormat="1" ht="16">
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+    </row>
+    <row r="18" spans="1:8" s="71" customFormat="1" ht="53.5">
+      <c r="A18" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+    </row>
+    <row r="19" spans="1:8" s="71" customFormat="1" ht="18">
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+    </row>
+    <row r="20" spans="1:8" s="71" customFormat="1" ht="46">
+      <c r="A20" s="83"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+    </row>
+    <row r="21" spans="1:8" s="71" customFormat="1" ht="18">
+      <c r="A21" s="49"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+    </row>
+    <row r="22" spans="1:8" s="71" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A22" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+    </row>
+    <row r="23" spans="1:8" s="71" customFormat="1" ht="18">
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+    </row>
+    <row r="24" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+    </row>
+    <row r="25" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="76"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+    </row>
+    <row r="26" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="76"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+    </row>
+    <row r="27" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="76"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+    </row>
+    <row r="28" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="76"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+    </row>
+    <row r="29" spans="1:8" s="88" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A29" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+    </row>
+    <row r="30" spans="1:8" s="88" customFormat="1">
+      <c r="A30" s="89"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+    </row>
+    <row r="31" spans="1:8" s="88" customFormat="1">
+      <c r="A31" s="89"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+    </row>
+    <row r="32" spans="1:8" s="88" customFormat="1">
+      <c r="A32" s="89"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+    </row>
+    <row r="33" spans="1:8" s="94" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="92"/>
+      <c r="C33" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="92"/>
+      <c r="E33" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="92"/>
+      <c r="G33" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="92"/>
+    </row>
+    <row r="34" spans="1:8" s="94" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A34" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="146"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+    </row>
+    <row r="35" spans="1:8" s="71" customFormat="1" ht="18">
+      <c r="A35" s="76"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+    </row>
+    <row r="36" spans="1:8" s="71" customFormat="1" ht="19">
+      <c r="A36" s="95"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+    </row>
+    <row r="37" spans="1:8" s="71" customFormat="1" ht="19">
+      <c r="A37" s="96"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+    </row>
+    <row r="38" spans="1:8" s="71" customFormat="1"/>
+    <row r="55" spans="1:1">
+      <c r="A55" s="97"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A7ED5A-1647-49A6-B7A4-2081F28A7C64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDDFD29-3641-4B1A-A07E-2C2FACAC0E4B}">
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:J20"/>
+      <selection activeCell="G10" sqref="G10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -16199,13 +16627,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="6">
-        <v>7.22</v>
+        <v>7.23</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="101" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H3" s="43" t="s">
         <v>17</v>
@@ -16248,7 +16676,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="134">
-        <v>7.22</v>
+        <v>7.23</v>
       </c>
       <c r="D6" s="135"/>
       <c r="E6" s="135"/>
@@ -16263,7 +16691,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="137">
-        <v>7.22</v>
+        <v>7.23</v>
       </c>
       <c r="D7" s="138"/>
       <c r="E7" s="138"/>
@@ -16312,7 +16740,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="127" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D10" s="113"/>
       <c r="E10" s="113"/>
@@ -16320,7 +16748,7 @@
         <v>49</v>
       </c>
       <c r="G10" s="128" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H10" s="115"/>
       <c r="I10" s="116"/>
@@ -16332,22 +16760,14 @@
       <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
-        <v>54</v>
-      </c>
+      <c r="C11" s="127"/>
       <c r="D11" s="113"/>
       <c r="E11" s="113"/>
-      <c r="F11" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="128" t="s">
-        <v>50</v>
-      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="128"/>
       <c r="H11" s="115"/>
       <c r="I11" s="116"/>
-      <c r="J11" s="102" t="s">
-        <v>45</v>
-      </c>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B12" s="37">
@@ -16546,9 +16966,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{C53F189E-68F1-4150-8FB0-9FB7E5E37C0A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{8E0DAF99-CDF1-451E-A92C-6FD008D68154}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{E53CF0D8-6D08-43CE-8262-B1D523DAB015}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{86389E0E-B3C3-4DD4-847D-80742C2D67D9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{C42DABBE-98A9-4025-99F9-B9FFD6D38353}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{CEF55E98-5339-4689-81D0-C2DB92571C6F}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -16558,11 +16978,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0092D10-6EB6-4E07-8924-81B3E4E234BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A7ED5A-1647-49A6-B7A4-2081F28A7C64}">
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E20" sqref="E20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -16615,7 +17035,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="6">
-        <v>7.21</v>
+        <v>7.22</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
@@ -16664,7 +17084,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="134">
-        <v>7.21</v>
+        <v>7.22</v>
       </c>
       <c r="D6" s="135"/>
       <c r="E6" s="135"/>
@@ -16679,7 +17099,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="137">
-        <v>7.21</v>
+        <v>7.22</v>
       </c>
       <c r="D7" s="138"/>
       <c r="E7" s="138"/>
@@ -16748,14 +17168,22 @@
       <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="C11" s="113"/>
+      <c r="C11" s="127" t="s">
+        <v>54</v>
+      </c>
       <c r="D11" s="113"/>
       <c r="E11" s="113"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="114"/>
+      <c r="F11" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="128" t="s">
+        <v>50</v>
+      </c>
       <c r="H11" s="115"/>
       <c r="I11" s="116"/>
-      <c r="J11" s="35"/>
+      <c r="J11" s="102" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="B12" s="37">
@@ -16954,6 +17382,414 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{C53F189E-68F1-4150-8FB0-9FB7E5E37C0A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{8E0DAF99-CDF1-451E-A92C-6FD008D68154}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{E53CF0D8-6D08-43CE-8262-B1D523DAB015}"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0092D10-6EB6-4E07-8924-81B3E4E234BB}">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7.21</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8">
+        <v>8</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="134">
+        <v>7.21</v>
+      </c>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
+    </row>
+    <row r="7" spans="2:10" s="13" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="137">
+        <v>7.21</v>
+      </c>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:10" s="20" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="115"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="102" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B12" s="37">
+        <v>3</v>
+      </c>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B13" s="36">
+        <v>4</v>
+      </c>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B14" s="36">
+        <v>5</v>
+      </c>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B15" s="37">
+        <v>6</v>
+      </c>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B16" s="36">
+        <v>7</v>
+      </c>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="2:10" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B17" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="44">
+        <f>SUM(F10:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="126"/>
+    </row>
+    <row r="20" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
+    </row>
+    <row r="21" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B21" s="39">
+        <v>2</v>
+      </c>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
+    </row>
+    <row r="22" spans="2:10" s="9" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
+      <c r="B22" s="40">
+        <v>3</v>
+      </c>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{41EA4D91-E1C1-4B18-B26A-A2A6E65FCF47}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{06D56B77-F940-44A9-9ED3-00DA5C1DD490}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{BC74CCF0-3528-45FF-8C18-FB2360D615A7}"/>
@@ -16965,7 +17801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8D3A5-33E5-4711-B17A-62B2CF718632}">
   <dimension ref="B1:J27"/>
   <sheetViews>
@@ -17329,36 +18165,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17373,7 +18209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE49256-2EF2-43E5-9CD4-8E93E1819BC8}">
   <dimension ref="B1:J27"/>
   <sheetViews>
@@ -17737,36 +18573,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17781,7 +18617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
@@ -18145,12 +18981,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -18159,22 +19005,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18189,7 +19025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J117"/>
   <sheetViews>
@@ -18589,7 +19425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E111"/>
   <sheetViews>
@@ -18808,348 +19644,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I56"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.5"/>
-  <cols>
-    <col min="1" max="1" width="9.25" style="98" customWidth="1"/>
-    <col min="2" max="4" width="9.58203125" style="98" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" style="98" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" style="98" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="98" customWidth="1"/>
-    <col min="8" max="8" width="9.58203125" style="98" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="98"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="71" customFormat="1" ht="22.5">
-      <c r="A1" s="70"/>
-    </row>
-    <row r="2" spans="1:9" s="71" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="74" customFormat="1" ht="22.5">
-      <c r="A3" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-    </row>
-    <row r="4" spans="1:9" s="71" customFormat="1" ht="17.5">
-      <c r="A4" s="46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A5" s="75"/>
-    </row>
-    <row r="6" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A6" s="75"/>
-    </row>
-    <row r="7" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A7" s="75"/>
-    </row>
-    <row r="8" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A8" s="75"/>
-    </row>
-    <row r="9" spans="1:9" s="71" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A9" s="75"/>
-    </row>
-    <row r="10" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A10" s="75"/>
-    </row>
-    <row r="11" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A11" s="75"/>
-    </row>
-    <row r="12" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A12" s="75"/>
-    </row>
-    <row r="13" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A13" s="75"/>
-    </row>
-    <row r="14" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A14" s="75"/>
-    </row>
-    <row r="15" spans="1:9" s="71" customFormat="1" ht="18">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-    </row>
-    <row r="16" spans="1:9" s="78" customFormat="1" ht="45.5">
-      <c r="A16" s="145" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-    </row>
-    <row r="17" spans="1:8" s="78" customFormat="1" ht="16">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-    </row>
-    <row r="18" spans="1:8" s="71" customFormat="1" ht="53.5">
-      <c r="A18" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-    </row>
-    <row r="19" spans="1:8" s="71" customFormat="1" ht="18">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-    </row>
-    <row r="20" spans="1:8" s="71" customFormat="1" ht="46">
-      <c r="A20" s="83"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-    </row>
-    <row r="21" spans="1:8" s="71" customFormat="1" ht="18">
-      <c r="A21" s="49"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-    </row>
-    <row r="22" spans="1:8" s="71" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A22" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-    </row>
-    <row r="23" spans="1:8" s="71" customFormat="1" ht="18">
-      <c r="A23" s="76"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-    </row>
-    <row r="24" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-    </row>
-    <row r="25" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="76"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-    </row>
-    <row r="26" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-    </row>
-    <row r="27" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-    </row>
-    <row r="28" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-    </row>
-    <row r="29" spans="1:8" s="88" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A29" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-    </row>
-    <row r="30" spans="1:8" s="88" customFormat="1">
-      <c r="A30" s="89"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-    </row>
-    <row r="31" spans="1:8" s="88" customFormat="1">
-      <c r="A31" s="89"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-    </row>
-    <row r="32" spans="1:8" s="88" customFormat="1">
-      <c r="A32" s="89"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-    </row>
-    <row r="33" spans="1:8" s="94" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="92"/>
-      <c r="E33" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="92"/>
-      <c r="G33" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="92"/>
-    </row>
-    <row r="34" spans="1:8" s="94" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A34" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="146"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-    </row>
-    <row r="35" spans="1:8" s="71" customFormat="1" ht="18">
-      <c r="A35" s="76"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-    </row>
-    <row r="36" spans="1:8" s="71" customFormat="1" ht="19">
-      <c r="A36" s="95"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-    </row>
-    <row r="37" spans="1:8" s="71" customFormat="1" ht="19">
-      <c r="A37" s="96"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-    </row>
-    <row r="38" spans="1:8" s="71" customFormat="1"/>
-    <row r="55" spans="1:1">
-      <c r="A55" s="97"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="99"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>